--- a/src/predicciones/holt_winters/producto_202.xlsx
+++ b/src/predicciones/holt_winters/producto_202.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,750 +404,915 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44932</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.494215832320644</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44935</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.516626890998872</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44936</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.458197104740901</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44946</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.513631664609605</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44951</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.158293568733897</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44952</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.9490084984131084</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44960</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.041451189019304</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44962</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.501802876268702</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44963</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.52421393494693</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44967</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.465784148688959</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44968</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.521218708557662</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44971</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.165880612681955</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44979</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.9565955423611658</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44980</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.049038232967361</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44983</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.509389920216759</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44999</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.531800978894987</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45002</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.473371192637016</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45008</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.528805752505719</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45017</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.173467656630012</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45031</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9641825863092233</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45037</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.056625276915419</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45038</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.516976964164817</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45041</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1.539388022843045</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45044</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.480958236585074</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45050</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1.536392796453777</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45058</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.18105470057807</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45065</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9717696302572807</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45071</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1.064212320863476</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45078</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.524564008112874</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45080</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>1.546975066791102</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45089</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>1.488545280533131</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45097</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>1.543979840401834</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45102</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>1.188641744526127</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45106</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9793566742053381</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45108</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>1.071799364811533</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45111</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>1.532151052060932</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45117</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>1.554562110739159</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45119</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>1.496132324481189</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45128</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>1.551566884349892</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45132</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1.196228788474185</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45137</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9869437181533955</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45138</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>1.079386408759591</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45140</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>1.539738096008989</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45145</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>1.562149154687217</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45151</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>1.503719368429246</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45154</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>1.559153928297949</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45158</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>1.203815832422242</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45165</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.994530762101453</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45167</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>1.086973452707648</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45172</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>1.547325139957046</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45174</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>1.569736198635274</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45175</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>1.511306412377303</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45180</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>1.566740972246007</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45182</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>1.211402876370299</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45185</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>1.00211780604951</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45191</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>1.094560496655705</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45193</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>1.554912183905104</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45195</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>1.577323242583331</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45196</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>1.518893456325361</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45197</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>1.574328016194064</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45200</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>1.218989920318357</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45206</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>1.009704849997568</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45207</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>1.102147540603763</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45216</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>1.562499227853161</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45217</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>1.584910286531389</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45218</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>1.526480500273418</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45241</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>1.581915060142121</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45246</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>1.226576964266414</v>
       </c>
       <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B70">
+        <v>1.017291893945625</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B71">
+        <v>1.10973458455182</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B72">
+        <v>1.570086271801219</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B73">
+        <v>1.592497330479446</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B74">
+        <v>1.534067544221476</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B75">
+        <v>1.589502104090179</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B76">
+        <v>1.234164008214472</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B77">
+        <v>1.024878937893683</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B78">
+        <v>1.117321628499878</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B79">
+        <v>1.577673315749276</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B80">
+        <v>1.600084374427504</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B81">
+        <v>1.541654588169533</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B82">
+        <v>1.597089148038236</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B83">
+        <v>1.241751052162529</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B84">
+        <v>1.03246598184174</v>
+      </c>
+      <c r="C84">
         <v>1</v>
       </c>
     </row>
